--- a/Planilha_Gastos_Microcontroladores.xlsx
+++ b/Planilha_Gastos_Microcontroladores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03294919-A9EF-4824-BD09-B4FE02C40C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EEC5DA-353F-4914-9B6A-ECD197D91BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{13E5A8F1-F14F-4A02-BDEA-451BB0B60075}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{13E5A8F1-F14F-4A02-BDEA-451BB0B60075}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,95 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -99,19 +182,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -430,78 +518,78 @@
   <dimension ref="D4:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <f>0.19*6</f>
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>56.9</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>12.9</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4">
-        <f>1.8*4</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="E10" s="7">
+        <f>5.41*4</f>
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <f>ROUND(SUM(E6:E10),5)</f>
-        <v>85.64</v>
+        <v>100.08</v>
       </c>
     </row>
   </sheetData>
